--- a/ParkByeongHyeon/naver.xlsx
+++ b/ParkByeongHyeon/naver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="237">
   <si>
     <t>ProjectName</t>
   </si>
@@ -37,81 +37,93 @@
     <t>ReleaseInfo</t>
   </si>
   <si>
+    <t>egjs-flicking</t>
+  </si>
+  <si>
     <t>billboard.js</t>
   </si>
   <si>
+    <t>kapture-localization</t>
+  </si>
+  <si>
+    <t>kapture</t>
+  </si>
+  <si>
+    <t>arcus-memcached</t>
+  </si>
+  <si>
     <t>fixture-monkey</t>
   </si>
   <si>
-    <t>kapture-localization</t>
-  </si>
-  <si>
     <t>egjs-view360</t>
   </si>
   <si>
+    <t>arcus-c-client</t>
+  </si>
+  <si>
+    <t>egjs-grid</t>
+  </si>
+  <si>
     <t>egjs-infinitegrid</t>
   </si>
   <si>
+    <t>lispe</t>
+  </si>
+  <si>
     <t>fe-news</t>
   </si>
   <si>
-    <t>egjs-flicking</t>
-  </si>
-  <si>
-    <t>kapture</t>
-  </si>
-  <si>
     <t>spring-jdbc-plus</t>
   </si>
   <si>
+    <t>arcus</t>
+  </si>
+  <si>
+    <t>storybook-addon-preview</t>
+  </si>
+  <si>
+    <t>auto-async-wrap</t>
+  </si>
+  <si>
+    <t>egjs-imready</t>
+  </si>
+  <si>
+    <t>arcus-java-client</t>
+  </si>
+  <si>
+    <t>egjs-component</t>
+  </si>
+  <si>
+    <t>egjs-flicking-plugins</t>
+  </si>
+  <si>
+    <t>tldr</t>
+  </si>
+  <si>
+    <t>gdc</t>
+  </si>
+  <si>
+    <t>cog</t>
+  </si>
+  <si>
     <t>zeplin-flutter-gen</t>
   </si>
   <si>
     <t>egjs-list-differ</t>
   </si>
   <si>
-    <t>storybook-addon-preview</t>
-  </si>
-  <si>
-    <t>egjs-grid</t>
-  </si>
-  <si>
-    <t>egjs-imready</t>
-  </si>
-  <si>
-    <t>arcus-memcached</t>
-  </si>
-  <si>
-    <t>arcus</t>
-  </si>
-  <si>
     <t>egjs-view3d</t>
   </si>
   <si>
     <t>cover-checker</t>
   </si>
   <si>
-    <t>lispe</t>
-  </si>
-  <si>
-    <t>egjs-flicking-plugins</t>
-  </si>
-  <si>
     <t>egjs-axes</t>
   </si>
   <si>
-    <t>auto-async-wrap</t>
-  </si>
-  <si>
-    <t>arcus-c-client</t>
-  </si>
-  <si>
     <t>egjs-persist</t>
   </si>
   <si>
-    <t>arcus-java-client</t>
-  </si>
-  <si>
     <t>arcus-spring</t>
   </si>
   <si>
@@ -124,9 +136,6 @@
     <t>prototype-minify</t>
   </si>
   <si>
-    <t>gdc</t>
-  </si>
-  <si>
     <t>egjs-rotate</t>
   </si>
   <si>
@@ -139,9 +148,6 @@
     <t>claf</t>
   </si>
   <si>
-    <t>egjs-component</t>
-  </si>
-  <si>
     <t>egjs-agent</t>
   </si>
   <si>
@@ -196,345 +202,345 @@
     <t>gobench2xml</t>
   </si>
   <si>
-    <t>3,136</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>757</t>
+    <t>748</t>
+  </si>
+  <si>
+    <t>3,156</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>1,876</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>1,377</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1,873</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>1,377</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>1.8k</t>
   </si>
   <si>
     <t>5k</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>2.1k</t>
-  </si>
-  <si>
-    <t>1.8k</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>134</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1.1k</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
+    <t>['react', 'javascript', 'angular', 'mobile', 'typescript', 'vue', 'reactjs', 'slider', 'carousel', 'tablet', 'desktop', 'egjs', 'iscroll']</t>
+  </si>
+  <si>
     <t>['d3', 'svg', 'chart', 'graph', 'data-visualizations']</t>
   </si>
   <si>
+    <t>['localization', 'structure-from-motion', 'sfm', 'image-retrieval', 'r2d2', 'colmap', 'visual-localization']</t>
+  </si>
+  <si>
+    <t>['localization', 'structure-from-motion', 'sfm', 'image-retrieval', 'r2d2', 'colmap', 'visual-localization', 'visual-features']</t>
+  </si>
+  <si>
+    <t>['memcached', 'arcus', 'memory-cache-store', 'arcus-memcached', 'arcus-server']</t>
+  </si>
+  <si>
     <t>['kotlin', 'java', 'test', 'random-generation', 'property-based-testing']</t>
   </si>
   <si>
-    <t>['localization', 'structure-from-motion', 'sfm', 'image-retrieval', 'r2d2', 'colmap', 'visual-localization']</t>
-  </si>
-  <si>
     <t>['webgl', 'video', 'touch', 'spinner', 'panorama', '360', 'device-orientation', '360-photo']</t>
   </si>
   <si>
+    <t>['arcus', 'arcus-c-client', 'libmemcached']</t>
+  </si>
+  <si>
+    <t>['react', 'image', 'grid', 'video', 'vue', 'layout', 'justified', 'masonry', 'frame', 'egjs', 'packing']</t>
+  </si>
+  <si>
     <t>['react', 'javascript', 'grid', 'vue', 'layout', 'svelte', 'masonry', 'infinite', 'egjs', 'infinitegrid', 'dom-recycle', 'angluar']</t>
   </si>
   <si>
+    <t>['language', 'lisp', 'interpreter', 'data-structures', 'lazy-evaluation', 'function-composition', 'pattern-programming', 'haskell-like-high-level-function']</t>
+  </si>
+  <si>
     <t>['react', 'nodejs', 'javascript', 'css', 'html', 'front-end', 'angular', 'typescript', 'vue', 'es6', 'svelte', 'monthly', 'deno', 'fe-news']</t>
   </si>
   <si>
-    <t>['react', 'javascript', 'angular', 'mobile', 'typescript', 'vue', 'reactjs', 'slider', 'carousel', 'tablet', 'desktop', 'egjs', 'iscroll']</t>
-  </si>
-  <si>
-    <t>['localization', 'structure-from-motion', 'sfm', 'image-retrieval', 'r2d2', 'colmap', 'visual-localization', 'visual-features']</t>
-  </si>
-  <si>
     <t>['spring-jdbc', 'sql', 'spring-data', 'jdbc', 'spring-framework', 'spring-data-jdbc']</t>
   </si>
   <si>
+    <t>['memcached', 'zookeeper', 'data-structures', 'key-value-store', 'cache-cloud', 'arcus-cloud', 'memory-cache-cluster']</t>
+  </si>
+  <si>
+    <t>['addon', 'storybook', 'preview', 'egjs', 'naver']</t>
+  </si>
+  <si>
+    <t>['javascript', 'middleware', 'wrapper', 'express', 'es6', 'expressjs', 'error-handler', 'error-handling', 'automatic', 'wrap', 'async-await', 'auto', 'express-js', 'express-async-wrapper']</t>
+  </si>
+  <si>
+    <t>['react', 'image', 'video', 'ready', 'lazy-loading', 'egjs']</t>
+  </si>
+  <si>
+    <t>['arcus', 'arcus-java-client', 'spymemcached']</t>
+  </si>
+  <si>
+    <t>['javascript', 'typescript', 'component', 'eventemitter', 'egjs']</t>
+  </si>
+  <si>
+    <t>['slider', 'carousel', 'swipe', 'egjs', 'flicking', 'effect', 'flick']</t>
+  </si>
+  <si>
+    <t>['dimensionality-reduction', 'manifold-learning', 'unsupervised-machine-learning', 'pytorch-implementation']</t>
+  </si>
+  <si>
+    <t>['nlp', 'machine-learning', 'reinforcement-learning', 'ai', 'nlg', 'language-model', 'exponential-family', 'fairness-ml', 'information-geometry', 'gpt-2', 'gpt3', 'controlled-nlg']</t>
+  </si>
+  <si>
+    <t>['imagenet', 'transfer-learning', 'concept-generalization', 'imagenet-cog']</t>
+  </si>
+  <si>
     <t>['dart', 'flutter', 'zeplin', 'zeplin-extension']</t>
   </si>
   <si>
     <t>['diff', 'ordered', 'removed', 'differ', 'changed', 'added', 'purechanged']</t>
   </si>
   <si>
-    <t>['addon', 'storybook', 'preview', 'egjs', 'naver']</t>
-  </si>
-  <si>
-    <t>['react', 'image', 'grid', 'video', 'vue', 'layout', 'justified', 'masonry', 'frame', 'egjs', 'packing']</t>
-  </si>
-  <si>
-    <t>['react', 'image', 'video', 'ready', 'lazy-loading', 'egjs']</t>
-  </si>
-  <si>
-    <t>['memcached', 'arcus', 'memory-cache-store', 'arcus-memcached', 'arcus-server']</t>
-  </si>
-  <si>
-    <t>['memcached', 'zookeeper', 'data-structures', 'key-value-store', 'cache-cloud', 'arcus-cloud', 'memory-cache-cluster']</t>
-  </si>
-  <si>
     <t>['threejs', 'typescript', 'ar', 'egjs', 'gltf', '3d', 'webxr']</t>
   </si>
   <si>
     <t>['java', 'jacoco', 'cobertura', 'code-coverage']</t>
   </si>
   <si>
-    <t>['language', 'lisp', 'interpreter', 'data-structures', 'lazy-evaluation', 'function-composition', 'pattern-programming', 'haskell-like-high-level-function']</t>
-  </si>
-  <si>
-    <t>['slider', 'carousel', 'swipe', 'egjs', 'flicking', 'effect', 'flick']</t>
-  </si>
-  <si>
     <t>['javascript', 'typescript', 'virtual-scroll', 'egjs', 'axis', 'coordinate', 'cartesian']</t>
   </si>
   <si>
-    <t>['javascript', 'middleware', 'wrapper', 'express', 'es6', 'expressjs', 'error-handler', 'error-handling', 'automatic', 'wrap', 'async-await', 'auto', 'express-js', 'express-async-wrapper']</t>
-  </si>
-  <si>
-    <t>['arcus', 'arcus-c-client', 'libmemcached']</t>
-  </si>
-  <si>
     <t>['storage', 'cache', 'egjs', 'persist', 'bfcache']</t>
   </si>
   <si>
-    <t>['arcus', 'arcus-java-client', 'spymemcached']</t>
-  </si>
-  <si>
     <t>['arcus', 'spring-cache', 'arcus-spring']</t>
   </si>
   <si>
@@ -547,9 +553,6 @@
     <t>['plugin', 'typescript', 'webpack', 'prototype', 'rollup', 'ast']</t>
   </si>
   <si>
-    <t>['nlp', 'machine-learning', 'reinforcement-learning', 'ai', 'nlg', 'language-model', 'exponential-family', 'fairness-ml', 'information-geometry', 'gpt-2', 'gpt3', 'controlled-nlg']</t>
-  </si>
-  <si>
     <t>['javascript', 'rotate', 'egjs']</t>
   </si>
   <si>
@@ -562,9 +565,6 @@
     <t>['nlp', 'language', 'natural-language-processing', 'framework', 'pytorch', 'clova']</t>
   </si>
   <si>
-    <t>['javascript', 'typescript', 'component', 'eventemitter', 'egjs']</t>
-  </si>
-  <si>
     <t>['agent', 'user-agent', 'egjs', 'client-hints']</t>
   </si>
   <si>
@@ -616,69 +616,72 @@
     <t>['go', 'golang', 'benchmark', 'xml']</t>
   </si>
   <si>
-    <t>3.2.0</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
+    <t>3.9.0 Release (2021-10-27)</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
   </si>
   <si>
     <t>0.1.4</t>
   </si>
   <si>
-    <t>3.5.1 (2021-08-17)</t>
-  </si>
-  <si>
-    <t>4.1.0 Release (2021-10-06)</t>
-  </si>
-  <si>
-    <t>4.3.0 Release (2021-09-08)</t>
-  </si>
-  <si>
     <t>1.1.5</t>
   </si>
   <si>
+    <t>Arcus Server 1.13.3</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>3.6.1 (2021-10-18)</t>
+  </si>
+  <si>
+    <t>Arcus C Client 1.13.1</t>
+  </si>
+  <si>
+    <t>1.6.0 Release (2021-09-17)</t>
+  </si>
+  <si>
+    <t>4.1.1 Release (2021-11-01)</t>
+  </si>
+  <si>
     <t>2.2.3</t>
   </si>
   <si>
+    <t>2.0.0 Release (2020-09-23)</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>1.2.0 Release (2021-11-01)</t>
+  </si>
+  <si>
+    <t>Arcus Java Client 1.13.2</t>
+  </si>
+  <si>
+    <t>3.0.1 Release (2021-03-11)</t>
+  </si>
+  <si>
+    <t>4.2.2 Release (2021-10-22)</t>
+  </si>
+  <si>
     <t>1.0.0 Release (2019-08-05)</t>
   </si>
   <si>
-    <t>2.0.0 Release (2020-09-23)</t>
-  </si>
-  <si>
-    <t>1.6.0 Release (2021-09-17)</t>
-  </si>
-  <si>
-    <t>1.1.4 Release (2021-09-17)</t>
-  </si>
-  <si>
-    <t>Arcus Server 1.13.2</t>
-  </si>
-  <si>
     <t>Release v1.1.0 (2021-09-07)</t>
   </si>
   <si>
     <t>V1.4.2</t>
   </si>
   <si>
-    <t>4.2.1 Release (2021-08-24)</t>
-  </si>
-  <si>
     <t>2.8.0 Release (2021-03-17)</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Arcus C Client 1.13.1</t>
-  </si>
-  <si>
     <t>2.4.0 Release (2021-06-15)</t>
   </si>
   <si>
-    <t>Arcus Java Client 1.13.2</t>
-  </si>
-  <si>
     <t>Arcus Spring 1.13.3</t>
   </si>
   <si>
@@ -698,9 +701,6 @@
   </si>
   <si>
     <t>GLUE Benchmark, BPE Tokenizer, RoBERTa and WarmUp Scheduler Series</t>
-  </si>
-  <si>
-    <t>3.0.1 Release (2021-03-11)</t>
   </si>
   <si>
     <t>2.3.0 Release (2021-02-25)</t>
@@ -1082,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,19 +1119,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
         <v>200</v>
@@ -1145,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
         <v>201</v>
@@ -1171,19 +1171,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
         <v>202</v>
@@ -1197,19 +1197,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
         <v>203</v>
@@ -1223,19 +1223,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
         <v>204</v>
@@ -1249,19 +1249,22 @@
         <v>12</v>
       </c>
       <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1272,74 +1275,74 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1350,94 +1353,91 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
         <v>210</v>
@@ -1445,100 +1445,100 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
         <v>213</v>
@@ -1546,25 +1546,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
         <v>214</v>
@@ -1572,30 +1572,33 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1607,47 +1610,44 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1662,24 +1662,21 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1688,13 +1685,10 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1705,177 +1699,180 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="H31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1884,50 +1881,50 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1936,19 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1959,48 +1953,48 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2011,27 +2005,27 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -2043,333 +2037,336 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>170</v>
+      </c>
+      <c r="H41" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="H47" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
-      </c>
-      <c r="H48" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H49" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
         <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="H51" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2380,19 +2377,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="H52" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2403,27 +2403,24 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H53" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -2435,12 +2432,61 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>108</v>
       </c>
-      <c r="F54" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" t="s">
         <v>199</v>
       </c>
     </row>
